--- a/forecast.xlsx
+++ b/forecast.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komatsubaramasato/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komatsubaramasato/python-projects/AIカリキュラム用データ/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAECC711-F356-E04D-A296-C32D4CB27FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A1BE23-61E9-4C4F-B715-094CDBC7CEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>datetime</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>temperature</t>
   </si>
@@ -83,6 +80,7 @@
       <b/>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
@@ -128,12 +126,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -436,18 +433,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,54 +484,48 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="2">
-        <v>44440</v>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>485</v>
       </c>
       <c r="C2">
-        <v>485</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2021</v>
       </c>
       <c r="E2">
-        <v>2021</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
         <v>0</v>
       </c>
     </row>
